--- a/data/trans_orig/P43C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43C-Estudios-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>521304</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>487714</v>
+        <v>488733</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>554333</v>
+        <v>555264</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4060622515136076</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3798972175889893</v>
+        <v>0.3806912182595225</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4317894622312641</v>
+        <v>0.432514566427457</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>762500</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>729471</v>
+        <v>728540</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>796090</v>
+        <v>795071</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5939377484863924</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5682105377687348</v>
+        <v>0.567485433572543</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6201027824110105</v>
+        <v>0.6193087817404773</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>944675</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>907950</v>
+        <v>909931</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>983258</v>
+        <v>986913</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6012153514422244</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5778425070950124</v>
+        <v>0.5791033987822787</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6257700985166579</v>
+        <v>0.6280963914503083</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>626601</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>588018</v>
+        <v>584363</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>663326</v>
+        <v>661345</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3987846485577757</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3742299014833421</v>
+        <v>0.3719036085496918</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4221574929049877</v>
+        <v>0.4208966012177213</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>324369</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>301859</v>
+        <v>303669</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>343698</v>
+        <v>344631</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6872664586762931</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6395723139068028</v>
+        <v>0.6434083011808706</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7282207558553212</v>
+        <v>0.730196923123461</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>147601</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>128272</v>
+        <v>127339</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>170111</v>
+        <v>168301</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3127335413237069</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2717792441446787</v>
+        <v>0.2698030768765388</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.360427686093197</v>
+        <v>0.3565916988191291</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>1790349</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1730800</v>
+        <v>1725205</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1846091</v>
+        <v>1843944</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5381189638425683</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5202205148780882</v>
+        <v>0.5185389829580822</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5548732931486725</v>
+        <v>0.5542279318459997</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>1536701</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1480959</v>
+        <v>1483106</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1596250</v>
+        <v>1601845</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4618810361574317</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4451267068513274</v>
+        <v>0.4457720681540002</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4797794851219119</v>
+        <v>0.4814610170419177</v>
       </c>
     </row>
     <row r="15">
@@ -1105,19 +1105,19 @@
         <v>704584</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>668349</v>
+        <v>664821</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>740209</v>
+        <v>741896</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5344363497588895</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5069515181281344</v>
+        <v>0.5042751329170181</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.561457998840596</v>
+        <v>0.5627377702938582</v>
       </c>
     </row>
     <row r="5">
@@ -1134,19 +1134,19 @@
         <v>613785</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>578160</v>
+        <v>576473</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>650020</v>
+        <v>653548</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4655636502411105</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4385420011594039</v>
+        <v>0.4372622297061418</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4930484818718655</v>
+        <v>0.495724867082982</v>
       </c>
     </row>
     <row r="6">
@@ -1196,19 +1196,19 @@
         <v>1237529</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1197984</v>
+        <v>1192612</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1273988</v>
+        <v>1275249</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7098620085268897</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6871784493277806</v>
+        <v>0.6840974086606565</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.730775784067719</v>
+        <v>0.731498688806176</v>
       </c>
     </row>
     <row r="8">
@@ -1225,19 +1225,19 @@
         <v>505808</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>469349</v>
+        <v>468088</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>545353</v>
+        <v>550725</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2901379914731103</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2692242159322811</v>
+        <v>0.2685013111938233</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3128215506722196</v>
+        <v>0.3159025913393433</v>
       </c>
     </row>
     <row r="9">
@@ -1287,19 +1287,19 @@
         <v>347893</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>329218</v>
+        <v>330005</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>366967</v>
+        <v>366996</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7619727523473899</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7210687705380957</v>
+        <v>0.7227933298643373</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8037488351183261</v>
+        <v>0.8038124684952234</v>
       </c>
     </row>
     <row r="11">
@@ -1316,19 +1316,19 @@
         <v>108676</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>89602</v>
+        <v>89573</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>127351</v>
+        <v>126564</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.23802724765261</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.196251164881674</v>
+        <v>0.196187531504777</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2789312294619044</v>
+        <v>0.2772066701356628</v>
       </c>
     </row>
     <row r="12">
@@ -1378,19 +1378,19 @@
         <v>2290006</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2234312</v>
+        <v>2227866</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2345916</v>
+        <v>2344602</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6508888905440458</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6350590620307611</v>
+        <v>0.6332266877340103</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6667803110789344</v>
+        <v>0.6664066820916791</v>
       </c>
     </row>
     <row r="14">
@@ -1407,19 +1407,19 @@
         <v>1228269</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1172359</v>
+        <v>1173673</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1283963</v>
+        <v>1290409</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3491111094559542</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3332196889210655</v>
+        <v>0.3335933179083209</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3649409379692389</v>
+        <v>0.3667733122659897</v>
       </c>
     </row>
     <row r="15">
@@ -1586,19 +1586,19 @@
         <v>502579</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>469351</v>
+        <v>471393</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>534917</v>
+        <v>534646</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5141824217344313</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4801876204063358</v>
+        <v>0.482276595342318</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5472673585172821</v>
+        <v>0.5469903885994004</v>
       </c>
     </row>
     <row r="5">
@@ -1615,19 +1615,19 @@
         <v>474854</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>442516</v>
+        <v>442787</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>508082</v>
+        <v>506040</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4858175782655688</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4527326414827179</v>
+        <v>0.4530096114005995</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5198123795936643</v>
+        <v>0.517723404657682</v>
       </c>
     </row>
     <row r="6">
@@ -1677,19 +1677,19 @@
         <v>1306182</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1263276</v>
+        <v>1261375</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1344887</v>
+        <v>1345994</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6628048632455825</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6410324818480014</v>
+        <v>0.6400681175995097</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6824450965245601</v>
+        <v>0.6830070490569483</v>
       </c>
     </row>
     <row r="8">
@@ -1706,19 +1706,19 @@
         <v>664507</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>625802</v>
+        <v>624695</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>707413</v>
+        <v>709314</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3371951367544174</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3175549034754399</v>
+        <v>0.3169929509430517</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3589675181519987</v>
+        <v>0.3599318824004909</v>
       </c>
     </row>
     <row r="9">
@@ -1768,19 +1768,19 @@
         <v>424088</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>402152</v>
+        <v>402364</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>442352</v>
+        <v>440800</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7751032883152094</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7350093876743611</v>
+        <v>0.7353980563664102</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8084841650136022</v>
+        <v>0.8056466105954507</v>
       </c>
     </row>
     <row r="11">
@@ -1797,19 +1797,19 @@
         <v>123050</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>104786</v>
+        <v>106338</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>144986</v>
+        <v>144774</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2248967116847907</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.191515834986398</v>
+        <v>0.1943533894045493</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2649906123256389</v>
+        <v>0.2646019436335898</v>
       </c>
     </row>
     <row r="12">
@@ -1859,19 +1859,19 @@
         <v>2232850</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2173348</v>
+        <v>2177553</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2290645</v>
+        <v>2291537</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6388221739042389</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6217986789517573</v>
+        <v>0.6230018427598765</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6553576541845803</v>
+        <v>0.6556126650329677</v>
       </c>
     </row>
     <row r="14">
@@ -1888,19 +1888,19 @@
         <v>1262410</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1204615</v>
+        <v>1203723</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1321912</v>
+        <v>1317707</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3611778260957612</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3446423458154197</v>
+        <v>0.3443873349670316</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3782013210482426</v>
+        <v>0.3769981572401233</v>
       </c>
     </row>
     <row r="15">
@@ -2067,19 +2067,19 @@
         <v>303739</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>286595</v>
+        <v>284052</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>321969</v>
+        <v>322957</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.460766768779465</v>
+        <v>0.4607667687794651</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4347590383680113</v>
+        <v>0.4309013825095695</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4884213831956801</v>
+        <v>0.48991969069129</v>
       </c>
     </row>
     <row r="5">
@@ -2096,19 +2096,19 @@
         <v>355465</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>337235</v>
+        <v>336247</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>372609</v>
+        <v>375152</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5392332312205349</v>
+        <v>0.539233231220535</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5115786168043198</v>
+        <v>0.5100803093087098</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5652409616319887</v>
+        <v>0.5690986174904302</v>
       </c>
     </row>
     <row r="6">
@@ -2158,19 +2158,19 @@
         <v>916008</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>878698</v>
+        <v>879649</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>954907</v>
+        <v>953708</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5700700788742157</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5468504242618056</v>
+        <v>0.5474422502270589</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5942788182241945</v>
+        <v>0.5935325103400571</v>
       </c>
     </row>
     <row r="8">
@@ -2187,19 +2187,19 @@
         <v>690826</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>651927</v>
+        <v>653126</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>728136</v>
+        <v>727185</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4299299211257842</v>
+        <v>0.4299299211257843</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4057211817758055</v>
+        <v>0.4064674896599429</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4531495757381943</v>
+        <v>0.4525577497729409</v>
       </c>
     </row>
     <row r="9">
@@ -2249,19 +2249,19 @@
         <v>386803</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>368460</v>
+        <v>367803</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>403357</v>
+        <v>404238</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7587354807175956</v>
+        <v>0.7587354807175954</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7227537049944446</v>
+        <v>0.7214660017745108</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.791205466022784</v>
+        <v>0.7929343307336023</v>
       </c>
     </row>
     <row r="11">
@@ -2278,19 +2278,19 @@
         <v>122997</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>106443</v>
+        <v>105562</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>141340</v>
+        <v>141997</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2412645192824045</v>
+        <v>0.2412645192824044</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.208794533977216</v>
+        <v>0.2070656692663977</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2772462950055552</v>
+        <v>0.2785339982254892</v>
       </c>
     </row>
     <row r="12">
@@ -2340,19 +2340,19 @@
         <v>1606551</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1559744</v>
+        <v>1562779</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1657330</v>
+        <v>1653158</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5787624155486578</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5619001976039354</v>
+        <v>0.5629935000755603</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5970556888206047</v>
+        <v>0.5955526412777936</v>
       </c>
     </row>
     <row r="14">
@@ -2369,19 +2369,19 @@
         <v>1169287</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1118508</v>
+        <v>1122680</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1216094</v>
+        <v>1213059</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4212375844513421</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4029443111793957</v>
+        <v>0.4044473587222062</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4380998023960647</v>
+        <v>0.4370064999244396</v>
       </c>
     </row>
     <row r="15">
